--- a/src/configs/BINDINGS.lnc.xlsx
+++ b/src/configs/BINDINGS.lnc.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rbera/Documents/work/Pikachu/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5471D3E6-6B5D-3B42-A8C3-0185C4A9E8B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E5F64B-B606-E04F-99E2-45B87C74F776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="500" windowWidth="37300" windowHeight="21100" activeTab="1" xr2:uid="{B6DB5044-EAEF-F040-BBFF-62BCAC982907}"/>
+    <workbookView xWindow="1100" yWindow="500" windowWidth="37300" windowHeight="21100" activeTab="2" xr2:uid="{B6DB5044-EAEF-F040-BBFF-62BCAC982907}"/>
   </bookViews>
   <sheets>
     <sheet name="LNC" sheetId="1" r:id="rId1"/>
     <sheet name="LNC_2X" sheetId="3" r:id="rId2"/>
+    <sheet name="LNC_2X_FP" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="80">
   <si>
     <t>INV</t>
   </si>
@@ -555,7 +556,7 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
@@ -587,18 +588,10 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -626,6 +619,21 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -647,14 +655,10 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="40% - Accent1" xfId="2" builtinId="31"/>
@@ -997,8 +1001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB03F4BC-B3A4-7E46-B404-1B83578AFC45}">
   <dimension ref="B2:AZ42"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AC27" sqref="AC27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.25"/>
@@ -4263,16 +4267,16 @@
       <c r="R26" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="T26" s="30" t="s">
+      <c r="T26" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="U26" s="31"/>
-      <c r="V26" s="32"/>
-      <c r="W26" s="30" t="s">
+      <c r="U26" s="43"/>
+      <c r="V26" s="44"/>
+      <c r="W26" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="X26" s="31"/>
-      <c r="Y26" s="32"/>
+      <c r="X26" s="43"/>
+      <c r="Y26" s="44"/>
       <c r="Z26" s="17">
         <v>0</v>
       </c>
@@ -4354,18 +4358,18 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="T27" s="29" t="str">
+      <c r="T27" s="45" t="str">
         <f>_xlfn.CONCAT(C27:R27)</f>
         <v>1111000000000000</v>
       </c>
-      <c r="U27" s="29"/>
-      <c r="V27" s="29"/>
-      <c r="W27" s="29" t="str" cm="1">
+      <c r="U27" s="45"/>
+      <c r="V27" s="45"/>
+      <c r="W27" s="45" t="str" cm="1">
         <f t="array" aca="1" ref="W27" ca="1">_xlfn.TEXTJOIN("",1,MID(T27,LEN(T27)+1-ROW(INDIRECT("1:"&amp;LEN(T27))),1))</f>
         <v>0000000000001111</v>
       </c>
-      <c r="X27" s="29"/>
-      <c r="Y27" s="29"/>
+      <c r="X27" s="45"/>
+      <c r="Y27" s="45"/>
       <c r="Z27" s="1" t="str">
         <f t="shared" ref="Z27:AC29" ca="1" si="5">BIN2HEX(MID($W27,4*Z$26+1,4))</f>
         <v>0</v>
@@ -4382,11 +4386,11 @@
         <f t="shared" ca="1" si="5"/>
         <v>F</v>
       </c>
-      <c r="AD27" s="29" t="str">
+      <c r="AD27" s="45" t="str">
         <f ca="1">_xlfn.CONCAT("x",Z27:AC27)</f>
         <v>x000F</v>
       </c>
-      <c r="AE27" s="29"/>
+      <c r="AE27" s="45"/>
     </row>
     <row r="28" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
@@ -4450,18 +4454,18 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="T28" s="29" t="str">
+      <c r="T28" s="45" t="str">
         <f t="shared" ref="T28:T29" si="6">_xlfn.CONCAT(C28:R28)</f>
         <v>0000111111000000</v>
       </c>
-      <c r="U28" s="29"/>
-      <c r="V28" s="29"/>
-      <c r="W28" s="29" t="str" cm="1">
+      <c r="U28" s="45"/>
+      <c r="V28" s="45"/>
+      <c r="W28" s="45" t="str" cm="1">
         <f t="array" aca="1" ref="W28" ca="1">_xlfn.TEXTJOIN("",1,MID(T28,LEN(T28)+1-ROW(INDIRECT("1:"&amp;LEN(T28))),1))</f>
         <v>0000001111110000</v>
       </c>
-      <c r="X28" s="29"/>
-      <c r="Y28" s="29"/>
+      <c r="X28" s="45"/>
+      <c r="Y28" s="45"/>
       <c r="Z28" s="1" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
@@ -4478,11 +4482,11 @@
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="AD28" s="29" t="str">
+      <c r="AD28" s="45" t="str">
         <f t="shared" ref="AD28:AD29" ca="1" si="7">_xlfn.CONCAT("x",Z28:AC28)</f>
         <v>x03F0</v>
       </c>
-      <c r="AE28" s="29"/>
+      <c r="AE28" s="45"/>
     </row>
     <row r="29" spans="2:52" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
@@ -4546,18 +4550,18 @@
       <c r="R29" s="1">
         <v>1</v>
       </c>
-      <c r="T29" s="29" t="str">
+      <c r="T29" s="45" t="str">
         <f t="shared" si="6"/>
         <v>0000000000111111</v>
       </c>
-      <c r="U29" s="29"/>
-      <c r="V29" s="29"/>
-      <c r="W29" s="29" t="str" cm="1">
+      <c r="U29" s="45"/>
+      <c r="V29" s="45"/>
+      <c r="W29" s="45" t="str" cm="1">
         <f t="array" aca="1" ref="W29" ca="1">_xlfn.TEXTJOIN("",1,MID(T29,LEN(T29)+1-ROW(INDIRECT("1:"&amp;LEN(T29))),1))</f>
         <v>1111110000000000</v>
       </c>
-      <c r="X29" s="29"/>
-      <c r="Y29" s="29"/>
+      <c r="X29" s="45"/>
+      <c r="Y29" s="45"/>
       <c r="Z29" s="1" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>F</v>
@@ -4574,11 +4578,11 @@
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="AD29" s="29" t="str">
+      <c r="AD29" s="45" t="str">
         <f t="shared" ca="1" si="7"/>
         <v>xFC00</v>
       </c>
-      <c r="AE29" s="29"/>
+      <c r="AE29" s="45"/>
     </row>
     <row r="30" spans="2:52" x14ac:dyDescent="0.25">
       <c r="K30" s="19"/>
@@ -4606,11 +4610,9 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="T26:V26"/>
+    <mergeCell ref="AD27:AE27"/>
+    <mergeCell ref="AD28:AE28"/>
+    <mergeCell ref="AD29:AE29"/>
     <mergeCell ref="W26:Y26"/>
     <mergeCell ref="W27:Y27"/>
     <mergeCell ref="W28:Y28"/>
@@ -4618,9 +4620,11 @@
     <mergeCell ref="T27:V27"/>
     <mergeCell ref="T28:V28"/>
     <mergeCell ref="T29:V29"/>
-    <mergeCell ref="AD27:AE27"/>
-    <mergeCell ref="AD28:AE28"/>
-    <mergeCell ref="AD29:AE29"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="T26:V26"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="C27:R29 T27:T29">
@@ -4660,9 +4664,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF30B8E-F53F-5B41-BD2B-945F05F009AE}">
-  <dimension ref="B2:BR59"/>
+  <dimension ref="B2:BR57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="Q56" sqref="Q56"/>
     </sheetView>
   </sheetViews>
@@ -4828,10 +4832,10 @@
       </c>
     </row>
     <row r="3" spans="2:52" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="29" t="s">
         <v>29</v>
       </c>
       <c r="D3" s="16">
@@ -4948,7 +4952,7 @@
         <v>0</v>
       </c>
       <c r="AK3" s="8" t="str">
-        <f t="shared" ref="AK3:AY18" si="1">BIN2HEX(MID($AI3,4*AK$2+1,4))</f>
+        <f t="shared" ref="AK3:AY4" si="1">BIN2HEX(MID($AI3,4*AK$2+1,4))</f>
         <v>3</v>
       </c>
       <c r="AL3" s="8" t="str">
@@ -5013,7 +5017,7 @@
       </c>
     </row>
     <row r="4" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B4" s="43"/>
+      <c r="B4" s="48"/>
       <c r="C4" s="21" t="s">
         <v>30</v>
       </c>
@@ -5127,7 +5131,7 @@
         <v>0000001111111111011110000000000000011111111110111100000000000000</v>
       </c>
       <c r="AJ4" s="8" t="str">
-        <f t="shared" ref="AJ4:AY34" si="3">BIN2HEX(MID($AI4,4*AJ$2+1,4))</f>
+        <f t="shared" ref="AJ4:AY20" si="3">BIN2HEX(MID($AI4,4*AJ$2+1,4))</f>
         <v>0</v>
       </c>
       <c r="AK4" s="8" t="str">
@@ -5196,7 +5200,7 @@
       </c>
     </row>
     <row r="5" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B5" s="43"/>
+      <c r="B5" s="48"/>
       <c r="C5" s="21" t="s">
         <v>31</v>
       </c>
@@ -5379,7 +5383,7 @@
       </c>
     </row>
     <row r="6" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B6" s="43"/>
+      <c r="B6" s="48"/>
       <c r="C6" s="21" t="s">
         <v>32</v>
       </c>
@@ -5562,7 +5566,7 @@
       </c>
     </row>
     <row r="7" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B7" s="43"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="20" t="s">
         <v>33</v>
       </c>
@@ -5745,7 +5749,7 @@
       </c>
     </row>
     <row r="8" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B8" s="43"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="21" t="s">
         <v>34</v>
       </c>
@@ -5928,7 +5932,7 @@
       </c>
     </row>
     <row r="9" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B9" s="43"/>
+      <c r="B9" s="48"/>
       <c r="C9" s="21" t="s">
         <v>35</v>
       </c>
@@ -6111,7 +6115,7 @@
       </c>
     </row>
     <row r="10" spans="2:52" ht="17" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="43"/>
+      <c r="B10" s="48"/>
       <c r="C10" s="22" t="s">
         <v>36</v>
       </c>
@@ -6294,7 +6298,7 @@
       </c>
     </row>
     <row r="11" spans="2:52" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="49" t="s">
         <v>46</v>
       </c>
       <c r="C11" s="23" t="s">
@@ -6482,7 +6486,7 @@
       </c>
     </row>
     <row r="12" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B12" s="45"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="24" t="s">
         <v>38</v>
       </c>
@@ -6668,7 +6672,7 @@
       </c>
     </row>
     <row r="13" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B13" s="45"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="24" t="s">
         <v>39</v>
       </c>
@@ -6854,7 +6858,7 @@
       </c>
     </row>
     <row r="14" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B14" s="45"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="24" t="s">
         <v>40</v>
       </c>
@@ -7040,7 +7044,7 @@
       </c>
     </row>
     <row r="15" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B15" s="45"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="24" t="s">
         <v>41</v>
       </c>
@@ -7226,7 +7230,7 @@
       </c>
     </row>
     <row r="16" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B16" s="45"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="24" t="s">
         <v>42</v>
       </c>
@@ -7412,8 +7416,8 @@
       </c>
     </row>
     <row r="17" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B17" s="45"/>
-      <c r="C17" s="50" t="s">
+      <c r="B17" s="50"/>
+      <c r="C17" s="30" t="s">
         <v>43</v>
       </c>
       <c r="D17" s="8">
@@ -7598,7 +7602,7 @@
       </c>
     </row>
     <row r="18" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B18" s="45"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="24" t="s">
         <v>44</v>
       </c>
@@ -7784,7 +7788,7 @@
       </c>
     </row>
     <row r="19" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B19" s="45"/>
+      <c r="B19" s="50"/>
       <c r="C19" s="24" t="s">
         <v>62</v>
       </c>
@@ -7970,7 +7974,7 @@
       </c>
     </row>
     <row r="20" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B20" s="45"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="24" t="s">
         <v>63</v>
       </c>
@@ -8156,7 +8160,7 @@
       </c>
     </row>
     <row r="21" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B21" s="45"/>
+      <c r="B21" s="50"/>
       <c r="C21" s="24" t="s">
         <v>64</v>
       </c>
@@ -8342,7 +8346,7 @@
       </c>
     </row>
     <row r="22" spans="2:52" ht="17" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="45"/>
+      <c r="B22" s="50"/>
       <c r="C22" s="25" t="s">
         <v>65</v>
       </c>
@@ -8528,7 +8532,7 @@
       </c>
     </row>
     <row r="23" spans="2:52" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="51" t="s">
         <v>47</v>
       </c>
       <c r="C23" s="26" t="s">
@@ -8722,7 +8726,7 @@
       </c>
     </row>
     <row r="24" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B24" s="47"/>
+      <c r="B24" s="52"/>
       <c r="C24" s="27" t="s">
         <v>67</v>
       </c>
@@ -8915,7 +8919,7 @@
       </c>
     </row>
     <row r="25" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B25" s="47"/>
+      <c r="B25" s="52"/>
       <c r="C25" s="27" t="s">
         <v>68</v>
       </c>
@@ -9111,8 +9115,8 @@
       </c>
     </row>
     <row r="26" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B26" s="47"/>
-      <c r="C26" s="51" t="s">
+      <c r="B26" s="52"/>
+      <c r="C26" s="31" t="s">
         <v>69</v>
       </c>
       <c r="D26" s="8">
@@ -9307,7 +9311,7 @@
       </c>
     </row>
     <row r="27" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B27" s="47"/>
+      <c r="B27" s="52"/>
       <c r="C27" s="27" t="s">
         <v>70</v>
       </c>
@@ -9503,7 +9507,7 @@
       </c>
     </row>
     <row r="28" spans="2:52" ht="17" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="48"/>
+      <c r="B28" s="53"/>
       <c r="C28" s="28" t="s">
         <v>71</v>
       </c>
@@ -9699,7 +9703,7 @@
       </c>
     </row>
     <row r="29" spans="2:52" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="46" t="s">
+      <c r="B29" s="51" t="s">
         <v>48</v>
       </c>
       <c r="C29" s="26" t="s">
@@ -9893,7 +9897,7 @@
       </c>
     </row>
     <row r="30" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B30" s="47"/>
+      <c r="B30" s="52"/>
       <c r="C30" s="27" t="s">
         <v>73</v>
       </c>
@@ -10086,7 +10090,7 @@
       </c>
     </row>
     <row r="31" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B31" s="47"/>
+      <c r="B31" s="52"/>
       <c r="C31" s="27" t="s">
         <v>74</v>
       </c>
@@ -10282,8 +10286,8 @@
       </c>
     </row>
     <row r="32" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B32" s="47"/>
-      <c r="C32" s="51" t="s">
+      <c r="B32" s="52"/>
+      <c r="C32" s="31" t="s">
         <v>75</v>
       </c>
       <c r="D32" s="8">
@@ -10478,7 +10482,7 @@
       </c>
     </row>
     <row r="33" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B33" s="47"/>
+      <c r="B33" s="52"/>
       <c r="C33" s="27" t="s">
         <v>76</v>
       </c>
@@ -10674,7 +10678,7 @@
       </c>
     </row>
     <row r="34" spans="2:69" ht="17" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="47"/>
+      <c r="B34" s="52"/>
       <c r="C34" s="28" t="s">
         <v>77</v>
       </c>
@@ -10993,16 +10997,16 @@
       <c r="AH42" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="BB42" s="30" t="s">
+      <c r="BB42" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="BC42" s="31"/>
-      <c r="BD42" s="32"/>
-      <c r="BE42" s="30" t="s">
+      <c r="BC42" s="43"/>
+      <c r="BD42" s="44"/>
+      <c r="BE42" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="BF42" s="31"/>
-      <c r="BG42" s="32"/>
+      <c r="BF42" s="43"/>
+      <c r="BG42" s="44"/>
       <c r="BH42" s="17">
         <v>0</v>
       </c>
@@ -11156,55 +11160,55 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="BB43" s="29" t="str">
+      <c r="BB43" s="45" t="str">
         <f>_xlfn.CONCAT(C43:AH43)</f>
         <v>11111111000000000000000000000000</v>
       </c>
-      <c r="BC43" s="29"/>
-      <c r="BD43" s="29"/>
-      <c r="BE43" s="29" t="str" cm="1">
+      <c r="BC43" s="45"/>
+      <c r="BD43" s="45"/>
+      <c r="BE43" s="45" t="str" cm="1">
         <f t="array" aca="1" ref="BE43" ca="1">_xlfn.TEXTJOIN("",1,MID(BB43,LEN(BB43)+1-ROW(INDIRECT("1:"&amp;LEN(BB43))),1))</f>
         <v>00000000000000000000000011111111</v>
       </c>
-      <c r="BF43" s="29"/>
-      <c r="BG43" s="29"/>
+      <c r="BF43" s="45"/>
+      <c r="BG43" s="45"/>
       <c r="BH43" s="1" t="str">
-        <f ca="1">BIN2HEX(MID($BE43,4*BH$42+1,4))</f>
+        <f t="shared" ref="BH43:BO45" ca="1" si="7">BIN2HEX(MID($BE43,4*BH$42+1,4))</f>
         <v>0</v>
       </c>
       <c r="BI43" s="1" t="str">
-        <f ca="1">BIN2HEX(MID($BE43,4*BI$42+1,4))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="BJ43" s="1" t="str">
-        <f ca="1">BIN2HEX(MID($BE43,4*BJ$42+1,4))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="BK43" s="1" t="str">
-        <f ca="1">BIN2HEX(MID($BE43,4*BK$42+1,4))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="BL43" s="1" t="str">
-        <f ca="1">BIN2HEX(MID($BE43,4*BL$42+1,4))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="BM43" s="1" t="str">
-        <f ca="1">BIN2HEX(MID($BE43,4*BM$42+1,4))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="BN43" s="1" t="str">
-        <f ca="1">BIN2HEX(MID($BE43,4*BN$42+1,4))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>F</v>
       </c>
       <c r="BO43" s="1" t="str">
-        <f ca="1">BIN2HEX(MID($BE43,4*BO$42+1,4))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>F</v>
       </c>
-      <c r="BP43" s="29" t="str">
+      <c r="BP43" s="45" t="str">
         <f ca="1">_xlfn.CONCAT("x",BH43:BO43)</f>
         <v>x000000FF</v>
       </c>
-      <c r="BQ43" s="29"/>
+      <c r="BQ43" s="45"/>
     </row>
     <row r="44" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
@@ -11326,55 +11330,55 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="BB44" s="29" t="str">
-        <f t="shared" ref="BB44:BB45" si="7">_xlfn.CONCAT(C44:AH44)</f>
+      <c r="BB44" s="45" t="str">
+        <f t="shared" ref="BB44:BB45" si="8">_xlfn.CONCAT(C44:AH44)</f>
         <v>00000000111111111111000000000000</v>
       </c>
-      <c r="BC44" s="29"/>
-      <c r="BD44" s="29"/>
-      <c r="BE44" s="29" t="str" cm="1">
+      <c r="BC44" s="45"/>
+      <c r="BD44" s="45"/>
+      <c r="BE44" s="45" t="str" cm="1">
         <f t="array" aca="1" ref="BE44" ca="1">_xlfn.TEXTJOIN("",1,MID(BB44,LEN(BB44)+1-ROW(INDIRECT("1:"&amp;LEN(BB44))),1))</f>
         <v>00000000000011111111111100000000</v>
       </c>
-      <c r="BF44" s="29"/>
-      <c r="BG44" s="29"/>
+      <c r="BF44" s="45"/>
+      <c r="BG44" s="45"/>
       <c r="BH44" s="1" t="str">
-        <f ca="1">BIN2HEX(MID($BE44,4*BH$42+1,4))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="BI44" s="1" t="str">
-        <f ca="1">BIN2HEX(MID($BE44,4*BI$42+1,4))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="BJ44" s="1" t="str">
-        <f ca="1">BIN2HEX(MID($BE44,4*BJ$42+1,4))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="BK44" s="1" t="str">
-        <f ca="1">BIN2HEX(MID($BE44,4*BK$42+1,4))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>F</v>
       </c>
       <c r="BL44" s="1" t="str">
-        <f ca="1">BIN2HEX(MID($BE44,4*BL$42+1,4))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>F</v>
       </c>
       <c r="BM44" s="1" t="str">
-        <f ca="1">BIN2HEX(MID($BE44,4*BM$42+1,4))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>F</v>
       </c>
       <c r="BN44" s="1" t="str">
-        <f ca="1">BIN2HEX(MID($BE44,4*BN$42+1,4))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="BO44" s="1" t="str">
-        <f ca="1">BIN2HEX(MID($BE44,4*BO$42+1,4))</f>
-        <v>0</v>
-      </c>
-      <c r="BP44" s="29" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BP44" s="45" t="str">
         <f ca="1">_xlfn.CONCAT("x",BH44:BO44)</f>
         <v>x000FFF00</v>
       </c>
-      <c r="BQ44" s="29"/>
+      <c r="BQ44" s="45"/>
     </row>
     <row r="45" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
@@ -11496,55 +11500,55 @@
       <c r="AH45" s="1">
         <v>1</v>
       </c>
-      <c r="BB45" s="29" t="str">
-        <f t="shared" si="7"/>
+      <c r="BB45" s="45" t="str">
+        <f t="shared" si="8"/>
         <v>00000000000000000000111111111111</v>
       </c>
-      <c r="BC45" s="29"/>
-      <c r="BD45" s="29"/>
-      <c r="BE45" s="29" t="str" cm="1">
+      <c r="BC45" s="45"/>
+      <c r="BD45" s="45"/>
+      <c r="BE45" s="45" t="str" cm="1">
         <f t="array" aca="1" ref="BE45" ca="1">_xlfn.TEXTJOIN("",1,MID(BB45,LEN(BB45)+1-ROW(INDIRECT("1:"&amp;LEN(BB45))),1))</f>
         <v>11111111111100000000000000000000</v>
       </c>
-      <c r="BF45" s="29"/>
-      <c r="BG45" s="29"/>
+      <c r="BF45" s="45"/>
+      <c r="BG45" s="45"/>
       <c r="BH45" s="1" t="str">
-        <f ca="1">BIN2HEX(MID($BE45,4*BH$42+1,4))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>F</v>
       </c>
       <c r="BI45" s="1" t="str">
-        <f ca="1">BIN2HEX(MID($BE45,4*BI$42+1,4))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>F</v>
       </c>
       <c r="BJ45" s="1" t="str">
-        <f ca="1">BIN2HEX(MID($BE45,4*BJ$42+1,4))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>F</v>
       </c>
       <c r="BK45" s="1" t="str">
-        <f ca="1">BIN2HEX(MID($BE45,4*BK$42+1,4))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="BL45" s="1" t="str">
-        <f ca="1">BIN2HEX(MID($BE45,4*BL$42+1,4))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="BM45" s="1" t="str">
-        <f ca="1">BIN2HEX(MID($BE45,4*BM$42+1,4))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="BN45" s="1" t="str">
-        <f ca="1">BIN2HEX(MID($BE45,4*BN$42+1,4))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="BO45" s="1" t="str">
-        <f ca="1">BIN2HEX(MID($BE45,4*BO$42+1,4))</f>
-        <v>0</v>
-      </c>
-      <c r="BP45" s="29" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BP45" s="45" t="str">
         <f ca="1">_xlfn.CONCAT("x",BH45:BO45)</f>
         <v>xFFF00000</v>
       </c>
-      <c r="BQ45" s="29"/>
+      <c r="BQ45" s="45"/>
     </row>
     <row r="46" spans="2:69" x14ac:dyDescent="0.25">
       <c r="K46" s="19"/>
@@ -11650,16 +11654,16 @@
       <c r="AH49" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="BB49" s="30" t="s">
+      <c r="BB49" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="BC49" s="31"/>
-      <c r="BD49" s="32"/>
-      <c r="BE49" s="30" t="s">
+      <c r="BC49" s="43"/>
+      <c r="BD49" s="44"/>
+      <c r="BE49" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="BF49" s="31"/>
-      <c r="BG49" s="32"/>
+      <c r="BF49" s="43"/>
+      <c r="BG49" s="44"/>
       <c r="BH49" s="17">
         <v>0</v>
       </c>
@@ -11806,55 +11810,55 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="BB50" s="29" t="str">
+      <c r="BB50" s="45" t="str">
         <f>_xlfn.CONCAT(C50:AH50)</f>
         <v>00000000000000000000111111000000</v>
       </c>
-      <c r="BC50" s="29"/>
-      <c r="BD50" s="29"/>
-      <c r="BE50" s="29" t="str" cm="1">
+      <c r="BC50" s="45"/>
+      <c r="BD50" s="45"/>
+      <c r="BE50" s="45" t="str" cm="1">
         <f t="array" aca="1" ref="BE50" ca="1">_xlfn.TEXTJOIN("",1,MID(BB50,LEN(BB50)+1-ROW(INDIRECT("1:"&amp;LEN(BB50))),1))</f>
         <v>00000011111100000000000000000000</v>
       </c>
-      <c r="BF50" s="29"/>
-      <c r="BG50" s="29"/>
+      <c r="BF50" s="45"/>
+      <c r="BG50" s="45"/>
       <c r="BH50" s="1" t="str">
-        <f ca="1">BIN2HEX(MID($BE50,4*BH$42+1,4))</f>
+        <f t="shared" ref="BH50:BO51" ca="1" si="9">BIN2HEX(MID($BE50,4*BH$42+1,4))</f>
         <v>0</v>
       </c>
       <c r="BI50" s="1" t="str">
-        <f ca="1">BIN2HEX(MID($BE50,4*BI$42+1,4))</f>
+        <f t="shared" ca="1" si="9"/>
         <v>3</v>
       </c>
       <c r="BJ50" s="1" t="str">
-        <f ca="1">BIN2HEX(MID($BE50,4*BJ$42+1,4))</f>
+        <f t="shared" ca="1" si="9"/>
         <v>F</v>
       </c>
       <c r="BK50" s="1" t="str">
-        <f ca="1">BIN2HEX(MID($BE50,4*BK$42+1,4))</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="BL50" s="1" t="str">
-        <f ca="1">BIN2HEX(MID($BE50,4*BL$42+1,4))</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="BM50" s="1" t="str">
-        <f ca="1">BIN2HEX(MID($BE50,4*BM$42+1,4))</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="BN50" s="1" t="str">
-        <f ca="1">BIN2HEX(MID($BE50,4*BN$42+1,4))</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="BO50" s="1" t="str">
-        <f ca="1">BIN2HEX(MID($BE50,4*BO$42+1,4))</f>
-        <v>0</v>
-      </c>
-      <c r="BP50" s="29" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BP50" s="45" t="str">
         <f ca="1">_xlfn.CONCAT("x",BH50:BO50)</f>
         <v>x03F00000</v>
       </c>
-      <c r="BQ50" s="29"/>
+      <c r="BQ50" s="45"/>
     </row>
     <row r="51" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
@@ -11970,114 +11974,69 @@
       <c r="AH51" s="1">
         <v>1</v>
       </c>
-      <c r="BB51" s="29" t="str">
+      <c r="BB51" s="45" t="str">
         <f>_xlfn.CONCAT(C51:AH51)</f>
         <v>00000000000000000000000000111111</v>
       </c>
-      <c r="BC51" s="29"/>
-      <c r="BD51" s="29"/>
-      <c r="BE51" s="29" t="str" cm="1">
+      <c r="BC51" s="45"/>
+      <c r="BD51" s="45"/>
+      <c r="BE51" s="45" t="str" cm="1">
         <f t="array" aca="1" ref="BE51" ca="1">_xlfn.TEXTJOIN("",1,MID(BB51,LEN(BB51)+1-ROW(INDIRECT("1:"&amp;LEN(BB51))),1))</f>
         <v>11111100000000000000000000000000</v>
       </c>
-      <c r="BF51" s="29"/>
-      <c r="BG51" s="29"/>
+      <c r="BF51" s="45"/>
+      <c r="BG51" s="45"/>
       <c r="BH51" s="1" t="str">
-        <f ca="1">BIN2HEX(MID($BE51,4*BH$42+1,4))</f>
+        <f t="shared" ca="1" si="9"/>
         <v>F</v>
       </c>
       <c r="BI51" s="1" t="str">
-        <f ca="1">BIN2HEX(MID($BE51,4*BI$42+1,4))</f>
+        <f t="shared" ca="1" si="9"/>
         <v>C</v>
       </c>
       <c r="BJ51" s="1" t="str">
-        <f ca="1">BIN2HEX(MID($BE51,4*BJ$42+1,4))</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="BK51" s="1" t="str">
-        <f ca="1">BIN2HEX(MID($BE51,4*BK$42+1,4))</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="BL51" s="1" t="str">
-        <f ca="1">BIN2HEX(MID($BE51,4*BL$42+1,4))</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="BM51" s="1" t="str">
-        <f ca="1">BIN2HEX(MID($BE51,4*BM$42+1,4))</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="BN51" s="1" t="str">
-        <f ca="1">BIN2HEX(MID($BE51,4*BN$42+1,4))</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="BO51" s="1" t="str">
-        <f ca="1">BIN2HEX(MID($BE51,4*BO$42+1,4))</f>
-        <v>0</v>
-      </c>
-      <c r="BP51" s="29" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BP51" s="45" t="str">
         <f ca="1">_xlfn.CONCAT("x",BH51:BO51)</f>
         <v>xFC000000</v>
       </c>
-      <c r="BQ51" s="29"/>
+      <c r="BQ51" s="45"/>
     </row>
     <row r="55" spans="2:70" x14ac:dyDescent="0.25">
-      <c r="BR55" s="54"/>
+      <c r="BR55" s="32"/>
     </row>
     <row r="57" spans="2:70" x14ac:dyDescent="0.25">
-      <c r="BB57" s="53"/>
-      <c r="BC57" s="53"/>
-      <c r="BD57" s="53"/>
-      <c r="BE57" s="53"/>
-      <c r="BF57" s="53"/>
-      <c r="BG57" s="53"/>
-    </row>
-    <row r="59" spans="2:70" x14ac:dyDescent="0.25">
-      <c r="B59" s="52"/>
-      <c r="C59" s="52"/>
-      <c r="D59" s="52"/>
-      <c r="E59" s="52"/>
-      <c r="F59" s="52"/>
-      <c r="G59" s="52"/>
-      <c r="H59" s="52"/>
-      <c r="I59" s="52"/>
-      <c r="J59" s="52"/>
-      <c r="K59" s="52"/>
-      <c r="L59" s="52"/>
-      <c r="M59" s="52"/>
-      <c r="N59" s="52"/>
-      <c r="O59" s="52"/>
-      <c r="P59" s="52"/>
-      <c r="Q59" s="52"/>
-      <c r="R59" s="52"/>
-      <c r="S59" s="52"/>
-      <c r="T59" s="52"/>
-      <c r="U59" s="52"/>
-      <c r="V59" s="52"/>
-      <c r="W59" s="52"/>
-      <c r="X59" s="52"/>
-      <c r="Y59" s="52"/>
-      <c r="Z59" s="52"/>
-      <c r="AA59" s="52"/>
-      <c r="AB59" s="52"/>
-      <c r="AC59" s="52"/>
-      <c r="AD59" s="52"/>
-      <c r="AE59" s="52"/>
-      <c r="AF59" s="52"/>
-      <c r="AG59" s="52"/>
-      <c r="AH59" s="52"/>
+      <c r="BB57" s="46"/>
+      <c r="BC57" s="46"/>
+      <c r="BD57" s="46"/>
+      <c r="BE57" s="46"/>
+      <c r="BF57" s="46"/>
+      <c r="BG57" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="BP50:BQ50"/>
-    <mergeCell ref="BP51:BQ51"/>
-    <mergeCell ref="BB49:BD49"/>
-    <mergeCell ref="BB50:BD50"/>
-    <mergeCell ref="BB51:BD51"/>
-    <mergeCell ref="BB57:BD57"/>
-    <mergeCell ref="BE49:BG49"/>
-    <mergeCell ref="BE50:BG50"/>
-    <mergeCell ref="BE51:BG51"/>
-    <mergeCell ref="BE57:BG57"/>
     <mergeCell ref="BB45:BD45"/>
     <mergeCell ref="BE45:BG45"/>
     <mergeCell ref="BP45:BQ45"/>
@@ -12093,7 +12052,47 @@
     <mergeCell ref="BP44:BQ44"/>
     <mergeCell ref="BB42:BD42"/>
     <mergeCell ref="BE42:BG42"/>
+    <mergeCell ref="BB57:BD57"/>
+    <mergeCell ref="BE49:BG49"/>
+    <mergeCell ref="BE50:BG50"/>
+    <mergeCell ref="BE51:BG51"/>
+    <mergeCell ref="BE57:BG57"/>
+    <mergeCell ref="BP50:BQ50"/>
+    <mergeCell ref="BP51:BQ51"/>
+    <mergeCell ref="BB49:BD49"/>
+    <mergeCell ref="BB50:BD50"/>
+    <mergeCell ref="BB51:BD51"/>
   </mergeCells>
+  <conditionalFormatting sqref="C43:F45 K43:P45 W43:AB45 BB43:BB45">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50:F51 C59:F59 K59:P59 K50:P51 W59:AB59 W50:AB51">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50:AH51">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D7:AF10">
     <cfRule type="colorScale" priority="14">
       <colorScale>
@@ -12114,6 +12113,26 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D17:AF22">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D23:AF28 D3:AF6 D11:AF16 AH3:AH34">
     <cfRule type="colorScale" priority="21">
       <colorScale>
@@ -12124,26 +12143,6 @@
       </colorScale>
     </cfRule>
     <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17:AF22">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12184,8 +12183,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C43:F45 K43:P45 W43:AB45 BB43:BB45">
-    <cfRule type="colorScale" priority="24">
+  <conditionalFormatting sqref="G50:J51 G59:J59">
+    <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -12204,8 +12203,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC43:AH45">
-    <cfRule type="colorScale" priority="7">
+  <conditionalFormatting sqref="Q50:V51 Q59:V59">
+    <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -12214,38 +12213,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C50:AH51">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G50:J51 G59:J59">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C50:F51 C59:F59 K59:P59 K50:P51 W59:AB59 W50:AB51">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q50:V51 Q59:V59">
-    <cfRule type="colorScale" priority="33">
+  <conditionalFormatting sqref="AC43:AH45">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -12277,4 +12246,4845 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2FB1FC9-97EE-DF4D-A4DD-1531075FC1D6}">
+  <dimension ref="B2:BM43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.83203125" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="32" width="6.83203125" customWidth="1"/>
+    <col min="33" max="33" width="5.6640625" customWidth="1"/>
+    <col min="34" max="34" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="66.83203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="51" width="3.83203125" customWidth="1"/>
+    <col min="52" max="52" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:52" ht="17" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="T2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="V2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="W2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="X2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI2" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ2" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="18">
+        <v>1</v>
+      </c>
+      <c r="AL2" s="18">
+        <v>2</v>
+      </c>
+      <c r="AM2" s="18">
+        <v>3</v>
+      </c>
+      <c r="AN2" s="18">
+        <v>4</v>
+      </c>
+      <c r="AO2" s="18">
+        <v>5</v>
+      </c>
+      <c r="AP2" s="18">
+        <v>6</v>
+      </c>
+      <c r="AQ2" s="18">
+        <v>7</v>
+      </c>
+      <c r="AR2" s="18">
+        <v>8</v>
+      </c>
+      <c r="AS2" s="18">
+        <v>9</v>
+      </c>
+      <c r="AT2" s="18">
+        <v>10</v>
+      </c>
+      <c r="AU2" s="18">
+        <v>11</v>
+      </c>
+      <c r="AV2" s="18">
+        <v>12</v>
+      </c>
+      <c r="AW2" s="18">
+        <v>13</v>
+      </c>
+      <c r="AX2" s="18">
+        <v>14</v>
+      </c>
+      <c r="AY2" s="18">
+        <v>15</v>
+      </c>
+      <c r="AZ2" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="2:52" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="8">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1</v>
+      </c>
+      <c r="H3" s="8">
+        <v>1</v>
+      </c>
+      <c r="I3" s="8">
+        <v>1</v>
+      </c>
+      <c r="J3" s="8">
+        <v>1</v>
+      </c>
+      <c r="K3" s="8">
+        <v>1</v>
+      </c>
+      <c r="L3" s="8">
+        <v>1</v>
+      </c>
+      <c r="M3" s="8">
+        <v>1</v>
+      </c>
+      <c r="N3" s="8">
+        <v>1</v>
+      </c>
+      <c r="O3" s="8">
+        <v>0</v>
+      </c>
+      <c r="P3" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>1</v>
+      </c>
+      <c r="R3" s="8">
+        <v>1</v>
+      </c>
+      <c r="S3" s="8">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="8">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="8">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="8">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="W3" s="8">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="X3" s="8">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="8">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="8">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="8">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AB3" s="8">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AC3" s="8">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AD3" s="8">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AE3" s="8">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AF3" s="8">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AH3" s="8" t="str">
+        <f>_xlfn.CONCAT(D3:AF3)</f>
+        <v>11111111111011100000000000000</v>
+      </c>
+      <c r="AI3" s="8" t="str">
+        <f t="shared" ref="AI3" si="0">_xlfn.CONCAT("000000",AH3,AH3)</f>
+        <v>0000001111111111101110000000000000011111111111011100000000000000</v>
+      </c>
+      <c r="AJ3" s="8" t="str">
+        <f>BIN2HEX(MID($AI3,4*AJ$2+1,4))</f>
+        <v>0</v>
+      </c>
+      <c r="AK3" s="8" t="str">
+        <f t="shared" ref="AK3:AY4" si="1">BIN2HEX(MID($AI3,4*AK$2+1,4))</f>
+        <v>3</v>
+      </c>
+      <c r="AL3" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+      <c r="AM3" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+      <c r="AN3" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>B</v>
+      </c>
+      <c r="AO3" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="AP3" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AR3" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AS3" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+      <c r="AT3" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+      <c r="AU3" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>D</v>
+      </c>
+      <c r="AV3" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>C</v>
+      </c>
+      <c r="AW3" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AX3" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AY3" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AZ3" s="8" t="str">
+        <f>_xlfn.CONCAT("x",AJ3:AY3)</f>
+        <v>x03FFB8001FFDC000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="B4" s="48"/>
+      <c r="C4" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>1</v>
+      </c>
+      <c r="R4" s="1">
+        <v>1</v>
+      </c>
+      <c r="S4" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="V4" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="W4" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="X4" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AB4" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AC4" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AD4" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AE4" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AF4" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AH4" s="8" t="str">
+        <f t="shared" ref="AH4:AH22" si="2">_xlfn.CONCAT(D4:AF4)</f>
+        <v>11111111110111100000000000000</v>
+      </c>
+      <c r="AI4" s="8" t="str">
+        <f t="shared" ref="AI4:AI22" si="3">_xlfn.CONCAT("000000",AH4,AH4)</f>
+        <v>0000001111111111011110000000000000011111111110111100000000000000</v>
+      </c>
+      <c r="AJ4" s="8" t="str">
+        <f t="shared" ref="AJ4:AY20" si="4">BIN2HEX(MID($AI4,4*AJ$2+1,4))</f>
+        <v>0</v>
+      </c>
+      <c r="AK4" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="AL4" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+      <c r="AM4" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+      <c r="AN4" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="AO4" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="AP4" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AR4" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AS4" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+      <c r="AT4" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+      <c r="AU4" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>B</v>
+      </c>
+      <c r="AV4" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>C</v>
+      </c>
+      <c r="AW4" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AX4" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AY4" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="8" t="str">
+        <f t="shared" ref="AZ4:AZ22" si="5">_xlfn.CONCAT("x",AJ4:AY4)</f>
+        <v>x03FF78001FFBC000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="B5" s="48"/>
+      <c r="C5" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>1</v>
+      </c>
+      <c r="R5" s="1">
+        <v>1</v>
+      </c>
+      <c r="S5" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="T5" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="V5" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="X5" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AA5" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AB5" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AC5" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AD5" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AE5" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AF5" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AH5" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>11111111111011100000000000000</v>
+      </c>
+      <c r="AI5" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>0000001111111111101110000000000000011111111111011100000000000000</v>
+      </c>
+      <c r="AJ5" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK5" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AL5" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="AM5" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="AN5" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="AO5" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="AP5" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AR5" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AS5" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="AT5" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="AU5" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>D</v>
+      </c>
+      <c r="AV5" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>C</v>
+      </c>
+      <c r="AW5" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AX5" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AY5" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AZ5" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>x03FFB8001FFDC000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="B6" s="48"/>
+      <c r="C6" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1</v>
+      </c>
+      <c r="P6" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>1</v>
+      </c>
+      <c r="R6" s="1">
+        <v>1</v>
+      </c>
+      <c r="S6" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="V6" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="W6" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="X6" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AD6" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AE6" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AH6" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>11111111110111100000000000000</v>
+      </c>
+      <c r="AI6" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>0000001111111111011110000000000000011111111110111100000000000000</v>
+      </c>
+      <c r="AJ6" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK6" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AL6" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="AM6" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="AN6" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="AO6" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="AP6" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AR6" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AS6" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="AT6" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="AU6" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="AV6" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>C</v>
+      </c>
+      <c r="AW6" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AX6" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AY6" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>x03FF78001FFBC000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="B7" s="48"/>
+      <c r="C7" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="8">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>1</v>
+      </c>
+      <c r="G7" s="8">
+        <v>1</v>
+      </c>
+      <c r="H7" s="8">
+        <v>1</v>
+      </c>
+      <c r="I7" s="8">
+        <v>1</v>
+      </c>
+      <c r="J7" s="8">
+        <v>1</v>
+      </c>
+      <c r="K7" s="8">
+        <v>1</v>
+      </c>
+      <c r="L7" s="8">
+        <v>1</v>
+      </c>
+      <c r="M7" s="8">
+        <v>1</v>
+      </c>
+      <c r="N7" s="8">
+        <v>1</v>
+      </c>
+      <c r="O7" s="8">
+        <v>0</v>
+      </c>
+      <c r="P7" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>1</v>
+      </c>
+      <c r="R7" s="8">
+        <v>1</v>
+      </c>
+      <c r="S7" s="8">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="T7" s="8">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U7" s="8">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="V7" s="8">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="W7" s="8">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="X7" s="8">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="8">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="8">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="8">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AB7" s="8">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AC7" s="8">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AD7" s="8">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AE7" s="8">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="8">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AH7" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>11111111111011100000000000000</v>
+      </c>
+      <c r="AI7" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>0000001111111111101110000000000000011111111111011100000000000000</v>
+      </c>
+      <c r="AJ7" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK7" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AL7" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="AM7" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="AN7" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="AO7" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="AP7" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AR7" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AS7" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="AT7" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="AU7" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>D</v>
+      </c>
+      <c r="AV7" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>C</v>
+      </c>
+      <c r="AW7" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AX7" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AY7" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>x03FFB8001FFDC000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="B8" s="48"/>
+      <c r="C8" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>1</v>
+      </c>
+      <c r="P8" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>1</v>
+      </c>
+      <c r="R8" s="1">
+        <v>1</v>
+      </c>
+      <c r="S8" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="T8" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U8" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="V8" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="W8" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="X8" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AB8" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AC8" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AD8" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AE8" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AH8" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>11111111110111100000000000000</v>
+      </c>
+      <c r="AI8" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>0000001111111111011110000000000000011111111110111100000000000000</v>
+      </c>
+      <c r="AJ8" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK8" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AL8" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="AM8" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="AN8" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="AO8" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="AP8" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AR8" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AS8" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="AT8" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="AU8" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="AV8" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>C</v>
+      </c>
+      <c r="AW8" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AX8" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AY8" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>x03FF78001FFBC000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="B9" s="48"/>
+      <c r="C9" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1</v>
+      </c>
+      <c r="N9" s="1">
+        <v>1</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>1</v>
+      </c>
+      <c r="R9" s="1">
+        <v>1</v>
+      </c>
+      <c r="S9" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="T9" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U9" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="V9" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="W9" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="X9" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AB9" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AD9" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AF9" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AH9" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>11111111111011100000000000000</v>
+      </c>
+      <c r="AI9" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>0000001111111111101110000000000000011111111111011100000000000000</v>
+      </c>
+      <c r="AJ9" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK9" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AL9" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="AM9" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="AN9" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="AO9" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="AP9" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AR9" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AS9" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="AT9" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="AU9" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>D</v>
+      </c>
+      <c r="AV9" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>C</v>
+      </c>
+      <c r="AW9" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AX9" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AY9" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>x03FFB8001FFDC000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:52" ht="17" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="54"/>
+      <c r="C10" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="9">
+        <v>1</v>
+      </c>
+      <c r="E10" s="9">
+        <v>1</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1</v>
+      </c>
+      <c r="G10" s="9">
+        <v>1</v>
+      </c>
+      <c r="H10" s="9">
+        <v>1</v>
+      </c>
+      <c r="I10" s="9">
+        <v>1</v>
+      </c>
+      <c r="J10" s="9">
+        <v>1</v>
+      </c>
+      <c r="K10" s="9">
+        <v>1</v>
+      </c>
+      <c r="L10" s="9">
+        <v>1</v>
+      </c>
+      <c r="M10" s="9">
+        <v>1</v>
+      </c>
+      <c r="N10" s="9">
+        <v>0</v>
+      </c>
+      <c r="O10" s="9">
+        <v>1</v>
+      </c>
+      <c r="P10" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>1</v>
+      </c>
+      <c r="R10" s="9">
+        <v>1</v>
+      </c>
+      <c r="S10" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="T10" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U10" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="V10" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="W10" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="X10" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AB10" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AC10" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AD10" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AE10" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AF10" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AH10" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>11111111110111100000000000000</v>
+      </c>
+      <c r="AI10" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>0000001111111111011110000000000000011111111110111100000000000000</v>
+      </c>
+      <c r="AJ10" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK10" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AL10" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="AM10" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="AN10" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="AO10" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="AP10" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AR10" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AS10" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="AT10" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="AU10" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="AV10" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>C</v>
+      </c>
+      <c r="AW10" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AX10" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AY10" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AZ10" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>x03FF78001FFBC000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="B11" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="R11" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="S11" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="T11" s="16">
+        <v>1</v>
+      </c>
+      <c r="U11" s="16">
+        <v>1</v>
+      </c>
+      <c r="V11" s="16">
+        <v>1</v>
+      </c>
+      <c r="W11" s="16">
+        <v>1</v>
+      </c>
+      <c r="X11" s="16">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="16">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="16">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="16">
+        <v>1</v>
+      </c>
+      <c r="AH11" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>00000000000000001111110111011</v>
+      </c>
+      <c r="AI11" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>0000000000000000000000111111011101100000000000000001111110111011</v>
+      </c>
+      <c r="AJ11" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK11" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AL11" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM11" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AN11" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AO11" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AP11" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="AQ11" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="AR11" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="AS11" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AT11" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AU11" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AV11" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AW11" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="AX11" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="AY11" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="AZ11" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>x000003F760001FBB</v>
+      </c>
+    </row>
+    <row r="12" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="B12" s="37"/>
+      <c r="C12" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="T12" s="1">
+        <v>0</v>
+      </c>
+      <c r="U12" s="1">
+        <v>1</v>
+      </c>
+      <c r="V12" s="1">
+        <v>1</v>
+      </c>
+      <c r="W12" s="1">
+        <v>1</v>
+      </c>
+      <c r="X12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH12" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>00000000000000000111010111111</v>
+      </c>
+      <c r="AI12" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>0000000000000000000000011101011111100000000000000000111010111111</v>
+      </c>
+      <c r="AJ12" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK12" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AL12" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM12" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AN12" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AO12" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AP12" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>D</v>
+      </c>
+      <c r="AQ12" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="AR12" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>E</v>
+      </c>
+      <c r="AS12" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AT12" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AU12" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AV12" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AW12" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>E</v>
+      </c>
+      <c r="AX12" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="AY12" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="AZ12" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>x000001D7E0000EBF</v>
+      </c>
+    </row>
+    <row r="13" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="B13" s="37"/>
+      <c r="C13" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="P13" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="S13" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="T13" s="1">
+        <v>1</v>
+      </c>
+      <c r="U13" s="1">
+        <v>1</v>
+      </c>
+      <c r="V13" s="1">
+        <v>1</v>
+      </c>
+      <c r="W13" s="1">
+        <v>1</v>
+      </c>
+      <c r="X13" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH13" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>00000000000000001111110111011</v>
+      </c>
+      <c r="AI13" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>0000000000000000000000111111011101100000000000000001111110111011</v>
+      </c>
+      <c r="AJ13" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK13" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AL13" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM13" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AN13" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AO13" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AP13" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="AQ13" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="AR13" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="AS13" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AT13" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AU13" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AV13" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AW13" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="AX13" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="AY13" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="AZ13" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>x000003F760001FBB</v>
+      </c>
+    </row>
+    <row r="14" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="B14" s="37"/>
+      <c r="C14" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="R14" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="S14" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="T14" s="1">
+        <v>0</v>
+      </c>
+      <c r="U14" s="1">
+        <v>1</v>
+      </c>
+      <c r="V14" s="1">
+        <v>1</v>
+      </c>
+      <c r="W14" s="1">
+        <v>1</v>
+      </c>
+      <c r="X14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH14" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>00000000000000000111010111111</v>
+      </c>
+      <c r="AI14" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>0000000000000000000000011101011111100000000000000000111010111111</v>
+      </c>
+      <c r="AJ14" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK14" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AL14" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM14" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AN14" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AO14" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AP14" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>D</v>
+      </c>
+      <c r="AQ14" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="AR14" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>E</v>
+      </c>
+      <c r="AS14" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AT14" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AU14" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AV14" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AW14" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>E</v>
+      </c>
+      <c r="AX14" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="AY14" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="AZ14" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>x000001D7E0000EBF</v>
+      </c>
+    </row>
+    <row r="15" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="B15" s="37"/>
+      <c r="C15" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="P15" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="S15" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="T15" s="1">
+        <v>1</v>
+      </c>
+      <c r="U15" s="1">
+        <v>1</v>
+      </c>
+      <c r="V15" s="1">
+        <v>1</v>
+      </c>
+      <c r="W15" s="1">
+        <v>1</v>
+      </c>
+      <c r="X15" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH15" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>00000000000000001111110111011</v>
+      </c>
+      <c r="AI15" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>0000000000000000000000111111011101100000000000000001111110111011</v>
+      </c>
+      <c r="AJ15" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK15" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AL15" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM15" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AN15" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AO15" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AP15" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="AQ15" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="AR15" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="AS15" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AT15" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AU15" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AV15" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AW15" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="AX15" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="AY15" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="AZ15" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>x000003F760001FBB</v>
+      </c>
+    </row>
+    <row r="16" spans="2:52" ht="17" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="38"/>
+      <c r="C16" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="S16" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="T16" s="9">
+        <v>0</v>
+      </c>
+      <c r="U16" s="9">
+        <v>1</v>
+      </c>
+      <c r="V16" s="9">
+        <v>1</v>
+      </c>
+      <c r="W16" s="9">
+        <v>1</v>
+      </c>
+      <c r="X16" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB16" s="9">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="9">
+        <v>1</v>
+      </c>
+      <c r="AD16" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="9">
+        <v>1</v>
+      </c>
+      <c r="AF16" s="9">
+        <v>1</v>
+      </c>
+      <c r="AH16" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>00000000000000000111010111111</v>
+      </c>
+      <c r="AI16" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>0000000000000000000000011101011111100000000000000000111010111111</v>
+      </c>
+      <c r="AJ16" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK16" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AL16" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM16" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AN16" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AO16" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AP16" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>D</v>
+      </c>
+      <c r="AQ16" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="AR16" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>E</v>
+      </c>
+      <c r="AS16" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AT16" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AU16" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AV16" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AW16" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>E</v>
+      </c>
+      <c r="AX16" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="AY16" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="AZ16" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>x000001D7E0000EBF</v>
+      </c>
+    </row>
+    <row r="17" spans="2:65" x14ac:dyDescent="0.25">
+      <c r="B17" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="16">
+        <v>0</v>
+      </c>
+      <c r="E17" s="16">
+        <v>0</v>
+      </c>
+      <c r="F17" s="16">
+        <v>0</v>
+      </c>
+      <c r="G17" s="16">
+        <v>0</v>
+      </c>
+      <c r="H17" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="R17" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="S17" s="16">
+        <v>1</v>
+      </c>
+      <c r="T17" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U17" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="V17" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="W17" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="X17" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="16">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AB17" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AC17" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AD17" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AE17" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AF17" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AH17" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>00000000000000010000001000000</v>
+      </c>
+      <c r="AI17" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>0000000000000000000001000000100000000000000000000010000001000000</v>
+      </c>
+      <c r="AJ17" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK17" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AL17" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM17" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AN17" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AO17" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="AP17" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="AR17" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AS17" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AT17" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AU17" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AV17" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AW17" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AX17" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="AY17" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AZ17" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>x0000040800002040</v>
+      </c>
+    </row>
+    <row r="18" spans="2:65" x14ac:dyDescent="0.25">
+      <c r="B18" s="40"/>
+      <c r="C18" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O18" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="P18" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="R18" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="S18" s="1">
+        <v>1</v>
+      </c>
+      <c r="T18" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U18" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="V18" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="W18" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="X18" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AB18" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AC18" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AD18" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AE18" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AF18" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AH18" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>00000000000000010000001000000</v>
+      </c>
+      <c r="AI18" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>0000000000000000000001000000100000000000000000000010000001000000</v>
+      </c>
+      <c r="AJ18" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK18" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AL18" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM18" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AN18" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AO18" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="AP18" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="AR18" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AS18" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AT18" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AU18" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AV18" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AW18" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AX18" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="AY18" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AZ18" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>x0000040800002040</v>
+      </c>
+    </row>
+    <row r="19" spans="2:65" ht="17" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="41"/>
+      <c r="C19" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O19" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="P19" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="R19" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="S19" s="9">
+        <v>1</v>
+      </c>
+      <c r="T19" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U19" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="V19" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="W19" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="X19" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="Y19" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="Z19" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AB19" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AC19" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AD19" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AE19" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AF19" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AH19" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>00000000000000010000001000000</v>
+      </c>
+      <c r="AI19" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>0000000000000000000001000000100000000000000000000010000001000000</v>
+      </c>
+      <c r="AJ19" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK19" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AL19" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM19" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AN19" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AO19" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="AP19" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="AR19" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AS19" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AT19" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AU19" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AV19" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AW19" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AX19" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="AY19" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AZ19" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>x0000040800002040</v>
+      </c>
+    </row>
+    <row r="20" spans="2:65" x14ac:dyDescent="0.25">
+      <c r="B20" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="N20" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O20" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="P20" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="R20" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="S20" s="16">
+        <v>1</v>
+      </c>
+      <c r="T20" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U20" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="V20" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="W20" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="X20" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="Y20" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="Z20" s="16">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AB20" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AC20" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AD20" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AE20" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AF20" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AH20" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>00000000000000010000001000000</v>
+      </c>
+      <c r="AI20" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>0000000000000000000001000000100000000000000000000010000001000000</v>
+      </c>
+      <c r="AJ20" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK20" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AL20" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM20" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AN20" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AO20" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="AP20" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="AR20" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AS20" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AT20" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AU20" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AV20" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AW20" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AX20" s="8" t="str">
+        <f t="shared" ref="AK20:AY22" si="6">BIN2HEX(MID($AI20,4*AX$2+1,4))</f>
+        <v>4</v>
+      </c>
+      <c r="AY20" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AZ20" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>x0000040800002040</v>
+      </c>
+    </row>
+    <row r="21" spans="2:65" x14ac:dyDescent="0.25">
+      <c r="B21" s="40"/>
+      <c r="C21" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="P21" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="R21" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="S21" s="1">
+        <v>1</v>
+      </c>
+      <c r="T21" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U21" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="V21" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="X21" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AB21" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AC21" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AD21" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AE21" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AF21" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AH21" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>00000000000000010000001000000</v>
+      </c>
+      <c r="AI21" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>0000000000000000000001000000100000000000000000000010000001000000</v>
+      </c>
+      <c r="AJ21" s="8" t="str">
+        <f t="shared" ref="AJ21:AJ22" si="7">BIN2HEX(MID($AI21,4*AJ$2+1,4))</f>
+        <v>0</v>
+      </c>
+      <c r="AK21" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AL21" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AM21" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN21" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AO21" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="AP21" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="AR21" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AS21" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AT21" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AU21" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AV21" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="AW21" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AX21" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="AY21" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AZ21" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>x0000040800002040</v>
+      </c>
+    </row>
+    <row r="22" spans="2:65" ht="17" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="41"/>
+      <c r="C22" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="N22" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O22" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="P22" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="R22" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="S22" s="9">
+        <v>1</v>
+      </c>
+      <c r="T22" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U22" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="V22" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="W22" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="X22" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="Y22" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="Z22" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AB22" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AC22" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AD22" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AE22" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AF22" s="9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AH22" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>00000000000000010000001000000</v>
+      </c>
+      <c r="AI22" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>0000000000000000000001000000100000000000000000000010000001000000</v>
+      </c>
+      <c r="AJ22" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AK22" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AL22" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AM22" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN22" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AO22" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="AP22" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AQ22" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="AR22" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AS22" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AT22" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AU22" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AV22" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="AW22" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AX22" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="AY22" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AZ22" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>x0000040800002040</v>
+      </c>
+    </row>
+    <row r="25" spans="2:65" x14ac:dyDescent="0.25">
+      <c r="B25" s="2"/>
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+      <c r="K25" s="3"/>
+      <c r="L25" t="s">
+        <v>50</v>
+      </c>
+      <c r="P25" s="4"/>
+      <c r="Q25" t="s">
+        <v>51</v>
+      </c>
+      <c r="T25" s="5"/>
+      <c r="U25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z25" s="6"/>
+      <c r="AA25" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD25" s="7"/>
+      <c r="AE25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="2:65" ht="17" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:65" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+      <c r="C30" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="I30" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="J30" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K30" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="L30" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="M30" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="N30" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="O30" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="P30" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q30" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="R30" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="S30" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="T30" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="U30" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="V30" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="BA30" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="BB30" s="43"/>
+      <c r="BC30" s="44"/>
+      <c r="BD30" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE30" s="43"/>
+      <c r="BF30" s="44"/>
+      <c r="BG30" s="17">
+        <v>0</v>
+      </c>
+      <c r="BH30" s="17">
+        <v>1</v>
+      </c>
+      <c r="BI30" s="17">
+        <v>2</v>
+      </c>
+      <c r="BJ30" s="17">
+        <v>3</v>
+      </c>
+      <c r="BK30" s="55">
+        <v>4</v>
+      </c>
+      <c r="BL30" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="BM30" s="1"/>
+    </row>
+    <row r="31" spans="2:65" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1</v>
+      </c>
+      <c r="I31" s="1">
+        <v>1</v>
+      </c>
+      <c r="J31" s="1">
+        <v>1</v>
+      </c>
+      <c r="K31" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M31" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="N31" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O31" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="P31" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="R31" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="S31" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="T31" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U31" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="V31" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="BA31" s="45" t="str">
+        <f>_xlfn.CONCAT(C31:V31)</f>
+        <v>11111111000000000000</v>
+      </c>
+      <c r="BB31" s="45"/>
+      <c r="BC31" s="45"/>
+      <c r="BD31" s="45" t="str" cm="1">
+        <f t="array" aca="1" ref="BD31" ca="1">_xlfn.TEXTJOIN("",1,MID(BA31,LEN(BA31)+1-ROW(INDIRECT("1:"&amp;LEN(BA31))),1))</f>
+        <v>00000000000011111111</v>
+      </c>
+      <c r="BE31" s="45"/>
+      <c r="BF31" s="45"/>
+      <c r="BG31" s="1" t="str">
+        <f ca="1">BIN2HEX(MID($BD31,4*BG$30+1,4))</f>
+        <v>0</v>
+      </c>
+      <c r="BH31" s="1" t="str">
+        <f ca="1">BIN2HEX(MID($BD31,4*BH$30+1,4))</f>
+        <v>0</v>
+      </c>
+      <c r="BI31" s="1" t="str">
+        <f ca="1">BIN2HEX(MID($BD31,4*BI$30+1,4))</f>
+        <v>0</v>
+      </c>
+      <c r="BJ31" s="1" t="str">
+        <f ca="1">BIN2HEX(MID($BD31,4*BJ$30+1,4))</f>
+        <v>F</v>
+      </c>
+      <c r="BK31" s="1" t="str">
+        <f ca="1">BIN2HEX(MID($BD31,4*BK$30+1,4))</f>
+        <v>F</v>
+      </c>
+      <c r="BL31" s="45" t="str">
+        <f ca="1">_xlfn.CONCAT("x",BG31:BK31)</f>
+        <v>x000FF</v>
+      </c>
+      <c r="BM31" s="45"/>
+    </row>
+    <row r="32" spans="2:65" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K32" s="1">
+        <v>1</v>
+      </c>
+      <c r="L32" s="1">
+        <v>1</v>
+      </c>
+      <c r="M32" s="1">
+        <v>1</v>
+      </c>
+      <c r="N32" s="1">
+        <v>1</v>
+      </c>
+      <c r="O32" s="1">
+        <v>1</v>
+      </c>
+      <c r="P32" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="R32" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="S32" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="T32" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U32" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="V32" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="BA32" s="45" t="str">
+        <f>_xlfn.CONCAT(C32:V32)</f>
+        <v>00000000111111000000</v>
+      </c>
+      <c r="BB32" s="45"/>
+      <c r="BC32" s="45"/>
+      <c r="BD32" s="45" t="str" cm="1">
+        <f t="array" aca="1" ref="BD32" ca="1">_xlfn.TEXTJOIN("",1,MID(BA32,LEN(BA32)+1-ROW(INDIRECT("1:"&amp;LEN(BA32))),1))</f>
+        <v>00000011111100000000</v>
+      </c>
+      <c r="BE32" s="45"/>
+      <c r="BF32" s="45"/>
+      <c r="BG32" s="1" t="str">
+        <f ca="1">BIN2HEX(MID($BD32,4*BG$30+1,4))</f>
+        <v>0</v>
+      </c>
+      <c r="BH32" s="1" t="str">
+        <f ca="1">BIN2HEX(MID($BD32,4*BH$30+1,4))</f>
+        <v>3</v>
+      </c>
+      <c r="BI32" s="1" t="str">
+        <f ca="1">BIN2HEX(MID($BD32,4*BI$30+1,4))</f>
+        <v>F</v>
+      </c>
+      <c r="BJ32" s="1" t="str">
+        <f ca="1">BIN2HEX(MID($BD32,4*BJ$30+1,4))</f>
+        <v>0</v>
+      </c>
+      <c r="BK32" s="1" t="str">
+        <f ca="1">BIN2HEX(MID($BD32,4*BK$30+1,4))</f>
+        <v>0</v>
+      </c>
+      <c r="BL32" s="45" t="str">
+        <f t="shared" ref="BL32:BL33" ca="1" si="8">_xlfn.CONCAT("x",BG32:BK32)</f>
+        <v>x03F00</v>
+      </c>
+      <c r="BM32" s="45"/>
+    </row>
+    <row r="33" spans="2:65" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="L33" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="N33" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O33" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="P33" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>1</v>
+      </c>
+      <c r="R33" s="1">
+        <v>1</v>
+      </c>
+      <c r="S33" s="1">
+        <v>1</v>
+      </c>
+      <c r="T33" s="1">
+        <v>1</v>
+      </c>
+      <c r="U33" s="1">
+        <v>1</v>
+      </c>
+      <c r="V33" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA33" s="45" t="str">
+        <f>_xlfn.CONCAT(C33:V33)</f>
+        <v>00000000000000111111</v>
+      </c>
+      <c r="BB33" s="45"/>
+      <c r="BC33" s="45"/>
+      <c r="BD33" s="45" t="str" cm="1">
+        <f t="array" aca="1" ref="BD33" ca="1">_xlfn.TEXTJOIN("",1,MID(BA33,LEN(BA33)+1-ROW(INDIRECT("1:"&amp;LEN(BA33))),1))</f>
+        <v>11111100000000000000</v>
+      </c>
+      <c r="BE33" s="45"/>
+      <c r="BF33" s="45"/>
+      <c r="BG33" s="1" t="str">
+        <f ca="1">BIN2HEX(MID($BD33,4*BG$30+1,4))</f>
+        <v>F</v>
+      </c>
+      <c r="BH33" s="1" t="str">
+        <f ca="1">BIN2HEX(MID($BD33,4*BH$30+1,4))</f>
+        <v>C</v>
+      </c>
+      <c r="BI33" s="1" t="str">
+        <f ca="1">BIN2HEX(MID($BD33,4*BI$30+1,4))</f>
+        <v>0</v>
+      </c>
+      <c r="BJ33" s="1" t="str">
+        <f ca="1">BIN2HEX(MID($BD33,4*BJ$30+1,4))</f>
+        <v>0</v>
+      </c>
+      <c r="BK33" s="1" t="str">
+        <f ca="1">BIN2HEX(MID($BD33,4*BK$30+1,4))</f>
+        <v>0</v>
+      </c>
+      <c r="BL33" s="45" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>xFC000</v>
+      </c>
+      <c r="BM33" s="45"/>
+    </row>
+    <row r="36" spans="2:65" x14ac:dyDescent="0.25">
+      <c r="B36" s="1"/>
+      <c r="C36" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="H36" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="I36" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="J36" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K36" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="L36" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="M36" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="N36" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="O36" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="P36" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q36" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="R36" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="S36" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="T36" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="U36" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="V36" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="BA36" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="BB36" s="43"/>
+      <c r="BC36" s="44"/>
+      <c r="BD36" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE36" s="43"/>
+      <c r="BF36" s="44"/>
+      <c r="BG36" s="17">
+        <v>0</v>
+      </c>
+      <c r="BH36" s="17">
+        <v>1</v>
+      </c>
+      <c r="BI36" s="17">
+        <v>2</v>
+      </c>
+      <c r="BJ36" s="17">
+        <v>3</v>
+      </c>
+      <c r="BK36" s="55">
+        <v>4</v>
+      </c>
+      <c r="BL36" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="BM36" s="1"/>
+    </row>
+    <row r="37" spans="2:65" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="L37" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M37" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="N37" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O37" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="P37" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>1</v>
+      </c>
+      <c r="R37" s="1">
+        <v>1</v>
+      </c>
+      <c r="S37" s="1">
+        <v>1</v>
+      </c>
+      <c r="T37" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U37" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="V37" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="BA37" s="45" t="str">
+        <f>_xlfn.CONCAT(C37:V37)</f>
+        <v>00000000000000111000</v>
+      </c>
+      <c r="BB37" s="45"/>
+      <c r="BC37" s="45"/>
+      <c r="BD37" s="45" t="str" cm="1">
+        <f t="array" aca="1" ref="BD37" ca="1">_xlfn.TEXTJOIN("",1,MID(BA37,LEN(BA37)+1-ROW(INDIRECT("1:"&amp;LEN(BA37))),1))</f>
+        <v>00011100000000000000</v>
+      </c>
+      <c r="BE37" s="45"/>
+      <c r="BF37" s="45"/>
+      <c r="BG37" s="1" t="str">
+        <f ca="1">BIN2HEX(MID($BD37,4*BG$30+1,4))</f>
+        <v>1</v>
+      </c>
+      <c r="BH37" s="1" t="str">
+        <f ca="1">BIN2HEX(MID($BD37,4*BH$30+1,4))</f>
+        <v>C</v>
+      </c>
+      <c r="BI37" s="1" t="str">
+        <f ca="1">BIN2HEX(MID($BD37,4*BI$30+1,4))</f>
+        <v>0</v>
+      </c>
+      <c r="BJ37" s="1" t="str">
+        <f ca="1">BIN2HEX(MID($BD37,4*BJ$30+1,4))</f>
+        <v>0</v>
+      </c>
+      <c r="BK37" s="1" t="str">
+        <f ca="1">BIN2HEX(MID($BD37,4*BK$30+1,4))</f>
+        <v>0</v>
+      </c>
+      <c r="BL37" s="45" t="str">
+        <f ca="1">_xlfn.CONCAT("x",BG37:BK37)</f>
+        <v>x1C000</v>
+      </c>
+      <c r="BM37" s="45"/>
+    </row>
+    <row r="38" spans="2:65" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G38" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H38" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I38" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="J38" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K38" s="1">
+        <v>0</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0</v>
+      </c>
+      <c r="M38" s="1">
+        <v>0</v>
+      </c>
+      <c r="N38" s="1">
+        <v>0</v>
+      </c>
+      <c r="O38" s="1">
+        <v>0</v>
+      </c>
+      <c r="P38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>0</v>
+      </c>
+      <c r="R38" s="1">
+        <v>0</v>
+      </c>
+      <c r="S38" s="1">
+        <v>0</v>
+      </c>
+      <c r="T38" s="1">
+        <v>1</v>
+      </c>
+      <c r="U38" s="1">
+        <v>1</v>
+      </c>
+      <c r="V38" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA38" s="45" t="str">
+        <f>_xlfn.CONCAT(C38:V38)</f>
+        <v>00000000000000000111</v>
+      </c>
+      <c r="BB38" s="45"/>
+      <c r="BC38" s="45"/>
+      <c r="BD38" s="45" t="str" cm="1">
+        <f t="array" aca="1" ref="BD38" ca="1">_xlfn.TEXTJOIN("",1,MID(BA38,LEN(BA38)+1-ROW(INDIRECT("1:"&amp;LEN(BA38))),1))</f>
+        <v>11100000000000000000</v>
+      </c>
+      <c r="BE38" s="45"/>
+      <c r="BF38" s="45"/>
+      <c r="BG38" s="1" t="str">
+        <f ca="1">BIN2HEX(MID($BD38,4*BG$30+1,4))</f>
+        <v>E</v>
+      </c>
+      <c r="BH38" s="1" t="str">
+        <f ca="1">BIN2HEX(MID($BD38,4*BH$30+1,4))</f>
+        <v>0</v>
+      </c>
+      <c r="BI38" s="1" t="str">
+        <f ca="1">BIN2HEX(MID($BD38,4*BI$30+1,4))</f>
+        <v>0</v>
+      </c>
+      <c r="BJ38" s="1" t="str">
+        <f ca="1">BIN2HEX(MID($BD38,4*BJ$30+1,4))</f>
+        <v>0</v>
+      </c>
+      <c r="BK38" s="1" t="str">
+        <f ca="1">BIN2HEX(MID($BD38,4*BK$30+1,4))</f>
+        <v>0</v>
+      </c>
+      <c r="BL38" s="45" t="str">
+        <f t="shared" ref="BL38" ca="1" si="9">_xlfn.CONCAT("x",BG38:BK38)</f>
+        <v>xE0000</v>
+      </c>
+      <c r="BM38" s="45"/>
+    </row>
+    <row r="42" spans="2:65" x14ac:dyDescent="0.25">
+      <c r="K42" s="19"/>
+    </row>
+    <row r="43" spans="2:65" x14ac:dyDescent="0.25">
+      <c r="K43" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="BL37:BM37"/>
+    <mergeCell ref="BA38:BC38"/>
+    <mergeCell ref="BD38:BF38"/>
+    <mergeCell ref="BL38:BM38"/>
+    <mergeCell ref="BA33:BC33"/>
+    <mergeCell ref="BD33:BF33"/>
+    <mergeCell ref="BL33:BM33"/>
+    <mergeCell ref="B3:B10"/>
+    <mergeCell ref="BA36:BC36"/>
+    <mergeCell ref="BD36:BF36"/>
+    <mergeCell ref="BA31:BC31"/>
+    <mergeCell ref="BD31:BF31"/>
+    <mergeCell ref="BL31:BM31"/>
+    <mergeCell ref="BA32:BC32"/>
+    <mergeCell ref="BD32:BF32"/>
+    <mergeCell ref="BL32:BM32"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="BA30:BC30"/>
+    <mergeCell ref="BD30:BF30"/>
+    <mergeCell ref="BA37:BC37"/>
+    <mergeCell ref="BD37:BF37"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D11:AF22 D3:AF6 AH3:AH22">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7:AF10">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K31:V33 BA31:BA33 C31:F33">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G31:J33">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K37:V38 C37:F38">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G37:J38">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37:V38">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BA37:BA38">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>